--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
@@ -685,6 +685,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,35 +727,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1072,43 +1072,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1153,58 +1153,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="80" t="s">
+      <c r="K4" s="82"/>
+      <c r="L4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1235,17 +1235,17 @@
       <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,9 @@
       <c r="B6" s="68">
         <v>44958</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68">
+        <v>44958</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>69</v>
       </c>
@@ -1297,7 +1299,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1328,7 +1330,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1359,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1388,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1415,7 +1417,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1444,7 +1446,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1475,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1504,7 +1506,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1533,7 +1535,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1562,7 +1564,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1591,7 +1593,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2819,13 +2821,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2837,6 +2832,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2880,43 +2882,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2961,58 +2963,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -3037,23 +3039,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3079,7 +3081,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3110,7 +3112,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3139,7 +3141,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3168,7 +3170,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3197,7 +3199,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3226,7 +3228,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3255,7 +3257,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3286,7 +3288,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3315,7 +3317,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3344,7 +3346,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3373,7 +3375,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4604,6 +4606,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4615,13 +4624,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
@@ -5,28 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="43" r:id="rId1"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId2"/>
+    <sheet name="TG102LE-4G" sheetId="44" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="43" r:id="rId2"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -259,6 +262,69 @@
   </si>
   <si>
     <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(GD)</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(STM)</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Le4.1.04.BOO01.221222</t>
+  </si>
+  <si>
+    <t>Thiết bị X gps</t>
+  </si>
+  <si>
+    <t>Xử lý lại MCU</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>MCU, NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt sim</t>
+  </si>
+  <si>
+    <t>Thay MCU GD</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim +FW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Restore, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>LK,RTB</t>
   </si>
 </sst>
 </file>
@@ -464,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -658,9 +724,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -685,6 +748,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,35 +799,23 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1072,43 +1156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1153,186 +1237,218 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="80" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="73" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="68">
-        <v>44958</v>
-      </c>
-      <c r="C6" s="68"/>
+      <c r="B6" s="67">
+        <v>44964</v>
+      </c>
+      <c r="C6" s="67">
+        <v>44964</v>
+      </c>
       <c r="D6" s="37" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E6" s="38">
-        <v>868926033931236</v>
+        <v>862205051215723</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="70" t="s">
+      <c r="I6" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="70"/>
+      <c r="O6" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="72" t="s">
+      <c r="P6" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="71" t="s">
         <v>73</v>
       </c>
       <c r="R6" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="73"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="74"/>
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="67"/>
+      <c r="W6" s="74"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="B7" s="67">
+        <v>44964</v>
+      </c>
+      <c r="C7" s="67">
+        <v>44964</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="38">
+        <v>862205051237362</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>77</v>
+      </c>
       <c r="H7" s="64"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="83"/>
+      <c r="I7" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="70"/>
+      <c r="O7" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="74"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="67"/>
+      <c r="W7" s="74"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1356,12 +1472,12 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="83"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="67"/>
+      <c r="W8" s="74"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1385,12 +1501,12 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="83"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="67"/>
+      <c r="W9" s="74"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1414,12 +1530,12 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="83"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="67"/>
+      <c r="W10" s="74"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1443,12 +1559,12 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="83"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="67"/>
+      <c r="W11" s="74"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1472,14 +1588,14 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="82" t="s">
+      <c r="T12" s="74"/>
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="67"/>
+      <c r="W12" s="74"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1503,12 +1619,12 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="83"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="67"/>
+      <c r="W13" s="74"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1532,12 +1648,12 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="83"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="67"/>
+      <c r="W14" s="74"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1562,11 +1678,11 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="67"/>
+      <c r="W15" s="74"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1591,11 +1707,11 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="67"/>
+      <c r="W16" s="74"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1620,9 +1736,9 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="67"/>
+      <c r="U17" s="74"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="67"/>
+      <c r="W17" s="74"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1674,7 +1790,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="66" t="s">
+      <c r="U19" s="73" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1774,7 +1890,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1855,7 +1971,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="66" t="s">
+      <c r="U25" s="73" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -1891,7 +2007,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -1987,7 +2103,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2051,7 +2167,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2179,7 +2295,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2243,7 +2359,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2791,6 +2907,1900 @@
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
       <c r="I55" s="56"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="95" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="84"/>
+      <c r="L4" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44958</v>
+      </c>
+      <c r="C6" s="67">
+        <v>44966</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868926033931236</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67">
+        <v>44966</v>
+      </c>
+      <c r="C7" s="67">
+        <v>44966</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868345035629302</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="66"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67">
+        <v>44966</v>
+      </c>
+      <c r="C8" s="67">
+        <v>44966</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868926033936185</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" s="66"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67">
+        <v>44966</v>
+      </c>
+      <c r="C9" s="67">
+        <v>44966</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868926033933653</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="66"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>4</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>3</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>2</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>2</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>8</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="94"/>
       <c r="J55" s="32"/>
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
@@ -2843,7 +4853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -2880,43 +4890,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2961,58 +4971,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -3037,23 +5047,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3079,7 +5089,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3110,7 +5120,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3139,7 +5149,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3168,7 +5178,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3197,7 +5207,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3226,7 +5236,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3255,7 +5265,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3286,7 +5296,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3315,7 +5325,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3344,7 +5354,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3373,7 +5383,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
@@ -9,27 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102LE-4G" sheetId="44" r:id="rId1"/>
-    <sheet name="TG102V" sheetId="43" r:id="rId2"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId3"/>
+    <sheet name="TG102E" sheetId="45" r:id="rId1"/>
+    <sheet name="TG102LE-4G" sheetId="44" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="43" r:id="rId3"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -325,6 +328,21 @@
   </si>
   <si>
     <t>LK,RTB</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>125.212.203.114/16060</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624</t>
   </si>
 </sst>
 </file>
@@ -530,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -757,6 +775,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,50 +832,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,6 +1147,1806 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="86"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="82"/>
+      <c r="L4" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44979</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="38">
+        <v>860906041136034</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="77"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="77"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="77"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="77"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="77"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="77"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="77"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="77"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="77"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="77"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="77"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="77"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
@@ -1156,43 +2980,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1237,58 +3061,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="82"/>
+      <c r="L4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -1319,17 +3143,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,7 +3209,7 @@
         <v>85</v>
       </c>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1444,7 +3268,7 @@
         <v>85</v>
       </c>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1473,7 +3297,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1502,7 +3326,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1531,7 +3355,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1560,7 +3384,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1589,7 +3413,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1620,7 +3444,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +3473,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1678,7 +3502,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1707,7 +3531,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2907,1900 +4731,6 @@
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
       <c r="I55" s="56"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="95" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
-    <col min="12" max="12" width="56" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="45"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="46"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="46"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="67">
-        <v>44958</v>
-      </c>
-      <c r="C6" s="67">
-        <v>44966</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="38">
-        <v>868926033931236</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="66"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="67">
-        <v>44966</v>
-      </c>
-      <c r="C7" s="67">
-        <v>44966</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="38">
-        <v>868345035629302</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="66"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="66"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="67">
-        <v>44966</v>
-      </c>
-      <c r="C8" s="67">
-        <v>44966</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="38">
-        <v>868926033936185</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R8" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T8" s="66"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="66"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="67">
-        <v>44966</v>
-      </c>
-      <c r="C9" s="67">
-        <v>44966</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="38">
-        <v>868926033933653</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T9" s="66"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="66"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="66"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="66"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="66"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="66"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="66"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="66"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="66"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="66"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="47"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="47"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>3</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>2</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>8</v>
-      </c>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
-      </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="94"/>
       <c r="J55" s="32"/>
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
@@ -4854,6 +4784,1900 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="86"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="82"/>
+      <c r="L4" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44958</v>
+      </c>
+      <c r="C6" s="67">
+        <v>44966</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868926033931236</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67">
+        <v>44966</v>
+      </c>
+      <c r="C7" s="67">
+        <v>44966</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868345035629302</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="66"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67">
+        <v>44966</v>
+      </c>
+      <c r="C8" s="67">
+        <v>44966</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868926033936185</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" s="66"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67">
+        <v>44966</v>
+      </c>
+      <c r="C9" s="67">
+        <v>44966</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868926033933653</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="66"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>4</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>3</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>2</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>2</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>8</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -4890,43 +6714,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4971,58 +6795,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -5047,23 +6871,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5089,7 +6913,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5120,7 +6944,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="91"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5149,7 +6973,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="91"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5178,7 +7002,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5207,7 +7031,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="91"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5236,7 +7060,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5265,7 +7089,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5296,7 +7120,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="91"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5325,7 +7149,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="91"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5354,7 +7178,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5383,7 +7207,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="92"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6614,6 +8438,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6625,13 +8456,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
@@ -9,30 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102E" sheetId="45" r:id="rId1"/>
-    <sheet name="TG102LE-4G" sheetId="44" r:id="rId2"/>
-    <sheet name="TG102V" sheetId="43" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TG102LE" sheetId="46" r:id="rId1"/>
+    <sheet name="TG102E" sheetId="45" r:id="rId2"/>
+    <sheet name="TG102LE-4G" sheetId="44" r:id="rId3"/>
+    <sheet name="TG102V" sheetId="43" r:id="rId4"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -343,6 +346,24 @@
   </si>
   <si>
     <t>E.2.00.---24.200624</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GSM</t>
+  </si>
+  <si>
+    <t>Nạp lại FW module SIM</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
   </si>
 </sst>
 </file>
@@ -548,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,6 +814,36 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,30 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1147,7 +1174,1813 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="96"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="92"/>
+      <c r="L4" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44981</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868183037792954</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="83"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="83"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="83"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="83"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="83"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="83"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="83"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="83"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="83"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="83"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="83"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="83"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1180,43 +3013,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="78"/>
@@ -1261,58 +3094,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="88" t="s">
+      <c r="K4" s="92"/>
+      <c r="L4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
@@ -1343,17 +3176,17 @@
       <c r="K5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="95"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1397,7 +3230,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1428,7 +3261,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1457,7 +3290,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1486,7 +3319,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1515,7 +3348,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +3377,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1573,7 +3406,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1604,7 +3437,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1633,7 +3466,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1662,7 +3495,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1691,7 +3524,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2943,7 +4776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -2980,43 +4813,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3061,58 +4894,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="88" t="s">
+      <c r="K4" s="92"/>
+      <c r="L4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -3143,17 +4976,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="95"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,7 +5042,7 @@
         <v>85</v>
       </c>
       <c r="T6" s="74"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3268,7 +5101,7 @@
         <v>85</v>
       </c>
       <c r="T7" s="74"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3297,7 +5130,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3326,7 +5159,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3355,7 +5188,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3384,7 +5217,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3413,7 +5246,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3444,7 +5277,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3473,7 +5306,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3502,7 +5335,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3531,7 +5364,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4783,12 +6616,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4820,43 +6653,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="78"/>
@@ -4901,58 +6734,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="88" t="s">
+      <c r="K4" s="92"/>
+      <c r="L4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -4983,17 +6816,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="95"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5047,7 +6880,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5106,7 +6939,7 @@
         <v>93</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5163,7 +6996,7 @@
         <v>93</v>
       </c>
       <c r="T8" s="66"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5220,7 +7053,7 @@
         <v>93</v>
       </c>
       <c r="T9" s="66"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5230,26 +7063,50 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="67">
+        <v>44981</v>
+      </c>
+      <c r="C10" s="67">
+        <v>44984</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868926033932457</v>
+      </c>
       <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
+      <c r="I10" s="48" t="s">
+        <v>103</v>
+      </c>
       <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
+      <c r="K10" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5259,26 +7116,56 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="67">
+        <v>44981</v>
+      </c>
+      <c r="C11" s="67">
+        <v>44984</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868926033974319</v>
+      </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="I11" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
+      <c r="O11" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="T11" s="66"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5288,26 +7175,56 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="B12" s="67">
+        <v>44981</v>
+      </c>
+      <c r="C12" s="67">
+        <v>44984</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="38">
+        <v>864811037231078</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="I12" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
+      <c r="O12" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="T12" s="66"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5319,7 +7236,7 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="63"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -5338,7 +7255,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5367,7 +7284,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5396,7 +7313,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5425,7 +7342,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5544,7 +7461,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5608,7 +7525,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5885,7 +7802,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6013,7 +7930,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6045,7 +7962,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6077,7 +7994,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6677,7 +8594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -6714,43 +8631,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6795,58 +8712,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6871,23 +8788,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6913,7 +8830,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="90" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6944,7 +8861,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="91"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6973,7 +8890,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="91"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7002,7 +8919,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="91"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7031,7 +8948,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="91"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7060,7 +8977,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="91"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7089,7 +9006,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="90" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7120,7 +9037,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="91"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7149,7 +9066,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="91"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7178,7 +9095,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="91"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7207,7 +9124,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="92"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="46" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>IMEI mới : 862549041579023</t>
+  </si>
+  <si>
+    <t>Thay module MC60</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +451,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -569,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -820,30 +832,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,12 +850,37 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,43 +1220,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="78"/>
@@ -1288,58 +1301,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="89" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="82" t="s">
         <v>1</v>
       </c>
@@ -1370,17 +1383,17 @@
       <c r="K5" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1443,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="83"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1461,7 +1474,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="83"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1490,7 +1503,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="83"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1519,7 +1532,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="83"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1548,7 +1561,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="83"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1577,7 +1590,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="83"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1606,7 +1619,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="83"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1637,7 +1650,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="83"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1666,7 +1679,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="83"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1695,7 +1708,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1724,7 +1737,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2952,6 +2965,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2963,13 +2983,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2980,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3013,43 +3026,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="78"/>
@@ -3094,58 +3107,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="89" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
@@ -3176,17 +3189,17 @@
       <c r="K5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3196,7 +3209,9 @@
       <c r="B6" s="67">
         <v>44979</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>44985</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -3209,7 +3224,9 @@
       <c r="G6" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="100" t="s">
+        <v>108</v>
+      </c>
       <c r="I6" s="54" t="s">
         <v>99</v>
       </c>
@@ -3222,15 +3239,25 @@
       <c r="L6" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3261,7 +3288,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3290,7 +3317,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3319,7 +3346,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3348,7 +3375,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3377,7 +3404,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3406,7 +3433,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3437,7 +3464,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3466,7 +3493,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3495,7 +3522,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3524,7 +3551,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3675,7 +3702,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3888,7 +3915,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -4176,7 +4203,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4752,13 +4779,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4770,6 +4790,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4813,43 +4840,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4894,58 +4921,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="89" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -4976,17 +5003,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5042,7 +5069,7 @@
         <v>85</v>
       </c>
       <c r="T6" s="74"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5101,7 +5128,7 @@
         <v>85</v>
       </c>
       <c r="T7" s="74"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5130,7 +5157,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5159,7 +5186,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5188,7 +5215,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5217,7 +5244,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5246,7 +5273,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5277,7 +5304,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5306,7 +5333,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5335,7 +5362,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5364,7 +5391,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6592,13 +6619,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6610,6 +6630,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6620,7 +6647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:S12"/>
     </sheetView>
   </sheetViews>
@@ -6653,43 +6680,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="78"/>
@@ -6734,58 +6761,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="89" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6816,17 +6843,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6880,7 +6907,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6939,7 +6966,7 @@
         <v>93</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6996,7 +7023,7 @@
         <v>93</v>
       </c>
       <c r="T8" s="66"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7053,7 +7080,7 @@
         <v>93</v>
       </c>
       <c r="T9" s="66"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7106,7 +7133,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7165,7 +7192,7 @@
         <v>93</v>
       </c>
       <c r="T11" s="66"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7224,7 +7251,7 @@
         <v>93</v>
       </c>
       <c r="T12" s="66"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7255,7 +7282,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7284,7 +7311,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7313,7 +7340,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7342,7 +7369,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8570,6 +8597,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8581,13 +8615,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8631,43 +8658,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="98" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="98"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8712,58 +8739,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8788,23 +8815,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8830,7 +8857,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8861,7 +8888,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8890,7 +8917,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8919,7 +8946,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8948,7 +8975,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8977,7 +9004,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9006,7 +9033,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9037,7 +9064,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9066,7 +9093,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9095,7 +9122,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9124,7 +9151,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10355,13 +10382,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10373,6 +10393,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_LapDat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2023\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="46" r:id="rId1"/>
@@ -832,6 +832,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,37 +875,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,1813 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
-    <col min="12" max="12" width="56" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="45"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="46"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="46"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="67">
-        <v>44981</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="38">
-        <v>868183037792954</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="83"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="83"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="83"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="83"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="83"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="83"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="83"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="83"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="83"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="83"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="83"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="83"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="47"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="47"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>1</v>
-      </c>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
-      </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3026,43 +1220,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="78"/>
@@ -3107,23 +1301,23 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
@@ -3136,7 +1330,7 @@
       <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="90" t="s">
@@ -3145,61 +1339,61 @@
       <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="93" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="98"/>
+      <c r="B5" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="82" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="82" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="91"/>
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="91"/>
       <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3207,40 +1401,34 @@
         <v>1</v>
       </c>
       <c r="B6" s="67">
-        <v>44979</v>
+        <v>44981</v>
       </c>
       <c r="C6" s="67">
-        <v>44985</v>
+        <v>45006</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="38">
-        <v>860906041136034</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>97</v>
-      </c>
+        <v>868183037792954</v>
+      </c>
+      <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="100" t="s">
-        <v>108</v>
-      </c>
+      <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>101</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K6" s="39"/>
       <c r="L6" s="39" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
@@ -3250,20 +1438,20 @@
         <v>83</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="92" t="s">
+      <c r="T6" s="83"/>
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="77"/>
+      <c r="W6" s="83"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -3287,12 +1475,12 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="93"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="77"/>
+      <c r="W7" s="83"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -3316,12 +1504,12 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="93"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="77"/>
+      <c r="W8" s="83"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3345,12 +1533,12 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="93"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="77"/>
+      <c r="W9" s="83"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -3374,12 +1562,12 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="93"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="77"/>
+      <c r="W10" s="83"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3403,12 +1591,12 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="93"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="77"/>
+      <c r="W11" s="83"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -3432,14 +1620,14 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="92" t="s">
+      <c r="T12" s="83"/>
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="77"/>
+      <c r="W12" s="83"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -3463,12 +1651,12 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="93"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="77"/>
+      <c r="W13" s="83"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -3492,12 +1680,12 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="93"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="77"/>
+      <c r="W14" s="83"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3522,11 +1710,11 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="77"/>
+      <c r="W15" s="83"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -3551,11 +1739,11 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="77"/>
+      <c r="W16" s="83"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -3580,9 +1768,9 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="77"/>
+      <c r="U17" s="83"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="77"/>
+      <c r="W17" s="83"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -3634,7 +1822,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="76" t="s">
+      <c r="U19" s="82" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -3670,7 +1858,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3702,7 +1890,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3815,7 +2003,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="76" t="s">
+      <c r="U25" s="82" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -3915,7 +2103,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -4139,7 +2327,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4797,6 +2985,1820 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="98"/>
+      <c r="B5" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44979</v>
+      </c>
+      <c r="C6" s="67">
+        <v>44985</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="38">
+        <v>860906041136034</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="77"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="77"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="77"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="77"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="77"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="77"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="77"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="77"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="77"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="77"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="77"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="77"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>1</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4840,43 +4842,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4921,23 +4923,23 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
@@ -4950,7 +4952,7 @@
       <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="90" t="s">
@@ -4959,20 +4961,20 @@
       <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="93" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -5007,13 +5009,13 @@
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="91"/>
       <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5069,7 +5071,7 @@
         <v>85</v>
       </c>
       <c r="T6" s="74"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5128,7 +5130,7 @@
         <v>85</v>
       </c>
       <c r="T7" s="74"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5157,7 +5159,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5186,7 +5188,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5215,7 +5217,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5244,7 +5246,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5273,7 +5275,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5304,7 +5306,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5333,7 +5335,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5362,7 +5364,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5391,7 +5393,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6619,6 +6621,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6630,13 +6639,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6647,8 +6649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:S12"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6680,43 +6682,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="78"/>
@@ -6761,23 +6763,23 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="90" t="s">
         <v>6</v>
       </c>
@@ -6790,7 +6792,7 @@
       <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="90" t="s">
@@ -6799,20 +6801,20 @@
       <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="93" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -6847,13 +6849,13 @@
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
-      <c r="P5" s="96"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="91"/>
       <c r="R5" s="91"/>
-      <c r="S5" s="97"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6907,7 +6909,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6966,7 +6968,7 @@
         <v>93</v>
       </c>
       <c r="T7" s="66"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7023,7 +7025,7 @@
         <v>93</v>
       </c>
       <c r="T8" s="66"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>93</v>
       </c>
       <c r="T9" s="66"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7133,7 +7135,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7192,7 +7194,7 @@
         <v>93</v>
       </c>
       <c r="T11" s="66"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7251,7 +7253,7 @@
         <v>93</v>
       </c>
       <c r="T12" s="66"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7282,7 +7284,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7311,7 +7313,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7340,7 +7342,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7369,7 +7371,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8597,13 +8599,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8615,6 +8610,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8658,39 +8660,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="99" t="s">
         <v>68</v>
       </c>
@@ -8739,58 +8741,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="93" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8815,7 +8817,7 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
@@ -8824,14 +8826,14 @@
       </c>
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="97"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8857,7 +8859,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8888,7 +8890,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="93"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8917,7 +8919,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="93"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8946,7 +8948,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="93"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8975,7 +8977,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9004,7 +9006,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="93"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9033,7 +9035,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="92" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9064,7 +9066,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="93"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9093,7 +9095,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="93"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9122,7 +9124,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="93"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9151,7 +9153,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10382,6 +10384,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10393,13 +10402,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
